--- a/INSPECTORES Y VERIFICADORES 2020.xlsx
+++ b/INSPECTORES Y VERIFICADORES 2020.xlsx
@@ -5,33 +5,40 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esgo_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Verificadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A7EEB3-537F-45CE-99B4-3CC3766D0707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D91784-DAA6-4A68-BDA5-1B24DB7FBA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="cargos" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$2:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$F$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="314">
   <si>
     <t>Apellidos</t>
   </si>
@@ -580,13 +587,406 @@
   </si>
   <si>
     <t>Total: 84</t>
+  </si>
+  <si>
+    <t>PLANCARTE</t>
+  </si>
+  <si>
+    <t>MAGAÑA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>RUBIO</t>
+  </si>
+  <si>
+    <t>OLALDE</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>AVILEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>BUCIO</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>ARROYO</t>
+  </si>
+  <si>
+    <t>AGUILERA</t>
+  </si>
+  <si>
+    <t>BARAJAS</t>
+  </si>
+  <si>
+    <t>ARTEAGA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>SERVIN</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>CAMARENA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>CARATACHEA</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>CIPRES</t>
+  </si>
+  <si>
+    <t>BOTELLO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GALINDO</t>
+  </si>
+  <si>
+    <t>AYALA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>OCAÑA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>LOZA</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>RESENDIZ</t>
+  </si>
+  <si>
+    <t>MURGUIA</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>PAÑEDA</t>
+  </si>
+  <si>
+    <t>ZAVALA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>FALCON</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>BECERRA</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>ESQUIVEL</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>VALLADARES</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>VALLES</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>PALLARES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>SERENO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>VIVANCO</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>AGUERO</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>RENTERIA</t>
+  </si>
+  <si>
+    <t>ROBLEDO</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>MANDUJANO</t>
+  </si>
+  <si>
+    <t>MONTAÑEZ</t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>NARES</t>
+  </si>
+  <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>ARCHUNDIA</t>
+  </si>
+  <si>
+    <t>VILLAGOMEZ</t>
+  </si>
+  <si>
+    <t>DAVALOS</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>TOVAR</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>AVILA</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>AMBRIZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>ARRIAGA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>BARRIGA</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>AVALOS</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>MARES</t>
+  </si>
+  <si>
+    <t>URIBE</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>PINEDA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>Y FARIAS</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>paterno</t>
+  </si>
+  <si>
+    <t>materno</t>
+  </si>
+  <si>
+    <t>nom_completo</t>
+  </si>
+  <si>
+    <t>no_empleado</t>
+  </si>
+  <si>
+    <t>secretaria</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>foto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,8 +1021,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,12 +1046,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,9 +1101,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5192,8 +5595,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,10 +7164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71850438-3816-4D4A-A48B-CBE1E19332DC}">
-  <dimension ref="C2:C54"/>
+  <dimension ref="C2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6772,172 +7175,2013 @@
     <col min="3" max="3" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C1BB7-CB69-435D-A19F-0858B088393A}">
+  <dimension ref="A1:I85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2," ",B2," ",C2)</f>
+        <v>AGUSTIN PLANCARTE MAGAÑA</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE(A3," ",B3," ",C3)</f>
+        <v>EMMA BRAVO RUBIO</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>EDUARDO ALEJANDRO OLALDE RUIZ</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>MIGUEL ANGEL REYES MENDEZ</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>RAMIRO RODRIGUEZ AVILEZ</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>HECTOR SANCHEZ BUCIO</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>GERARDO GIOVANNI SANDOVAL ARROYO</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ABDUL RENE AGUILERA BARAJAS</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ANA GABRIELA ARTEAGA VAZQUEZ</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>LORENZO BAUTISTA SERVIN</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>JUAN PABLO CALDERON RUIZ</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>IGNACIO CAMARENA MARTINEZ</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>RICARDO CAMPOS PACHECO</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>CARLOS ALBERTO CARATACHEA BUENO</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>FLORENTINO CARDENAS PEREZ</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>MIGUEL CIPRES BOTELLO</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>EDUARDO DIAZ MARTINEZ</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>JORGE GALINDO AYALA</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>CARLOS ALBERTO GONZALEZ TINOCO</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALFONSO GUILLEN ROMAN</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>RAMIRO HERNANDEZ ALVAREZ</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>WILVER ENRIQUE HERNANDEZ OCAÑA</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>IGNACIO LOPEZ DE JESUS</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>J. DOLORES JORDAN LOZA Y FARIAS</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>GUILLERMO MAGAÑA RANGEL</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE ANTONIO MAGAÑA RESENDIZ</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>MIGUEL MURGUIA AGUIRRE</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE LUIS PAÑEDA ZAVALA</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE ANTONIO PAZ PAZ</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>HERIBERTO RODRIGUEZ FALCON</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>ERICK ALBERTO ROSAS VAZQUEZ</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>LUIS MARTIN TELLEZ BECERRA</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>SALVADOR TELLEZ MEDINA</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>DANIEL OSVALDO TELLO CERVANTES</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>JESUS URBINA ESQUIVEL</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>JORGE ALEJANDRO VALENTIN MARTINEZ</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>EDUARDO VALLADARES ESPIRITU</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>ERNESTO VALLES RICO</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>GERARDO CHAVEZ GARCIA</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>GONZALO ELIGIO ORTIZ GOMEZ</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>EDGAR DARIO PALLARES RAMOS</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>JAIME RANGEL ROMERO</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>MARIO ALBERTO SOLIS SERENO</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>DANIEL LEON LOPEZ</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>CESAR RAFAEL LOPEZ VIVANCO</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>ERIKKA LISBOA MENDEZ BUSTOS</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>HENOC JAFET VALENCIA ORTIZ</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>VICTOR HUGO VAZQUEZ MARTINEZ</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>GONZALO ALEJANDRO AGUERO MORENO</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE GUADALUPE VELAZQUEZ ARROYO</v>
+      </c>
+      <c r="F51">
+        <v>14</v>
+      </c>
+      <c r="G51">
+        <v>38</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE MANUEL MARQUEZ CORTES</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>RICH VAZQUEZ RENTERIA</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>27</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>REGULO FELIPE ROBLEDO ORTIZ</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>EDUARDO ZAMUDIO MANDUJANO</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>27</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE LUIS MONTAÑEZ GUERRERO</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>RAFAEL IGNACIO NARES HEREDIA</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>CESAR IVAN ARCHUNDIA ORTIZ</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>SALVADOR GONZALEZ VILLAGOMEZ</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>JOSE ANTONIO PAZ DAVALOS</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>FRANCISCO JAVIER PAZ ROBLES</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>ZHAURI SINUE TOVAR MENDOZA</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>HUGO GERARDO GARCIA RIVERA</v>
+      </c>
+      <c r="H63">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>JULIO CESAR GUTIERREZ GUTIERREZ</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>ROBERTO CARLOS AVILA PEREZ</v>
+      </c>
+      <c r="H65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>SALVADOR IVANOSKY CORONA MENDOZA</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D85" si="1">CONCATENATE(A67," ",B67," ",C67)</f>
+        <v>ADOLFO DURAN AMBRIZ</v>
+      </c>
+      <c r="H67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>JORGE HUMBERTO JUAREZ AVILA</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>FRANCISCO RAUL ORTIZ RODRIGUEZ</v>
+      </c>
+      <c r="H69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>ROBERTO RODRIGUEZ ARRIAGA</v>
+      </c>
+      <c r="H70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>JOSE ANTONIO ROSAS ANGEL</v>
+      </c>
+      <c r="H71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>JORGE OSIRIS TOVAR MENDOZA</v>
+      </c>
+      <c r="H72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>JAVIER DANIEL VEGA TORRES</v>
+      </c>
+      <c r="H73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>ERNESTO BARRIGA ACOSTA</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>HECTOR CASTRO CERVANTES</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>CHRISTIAN GERARDO CHAVEZ AVALOS</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>ROGELIO ESTRADA GONZALEZ</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>CARLOS EDUARDO MARES URIBE</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>JULIO IVAN MEDINA RUIZ</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>SERGIO MORA SALGADO</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>MARCO ANTONIO PINEDA MARTINEZ</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>ERIK RODRIGUEZ CARRILLO</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>CUITLAHUAC CUAUHTEMOC ARIAS MONTES</v>
+      </c>
+      <c r="F83">
+        <v>12</v>
+      </c>
+      <c r="G83">
+        <v>30</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>GERARDO BECERRA CARRILLO</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+      <c r="H84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>JOSE HUGO GUERRERO PACHECO</v>
+      </c>
+      <c r="H85">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/INSPECTORES Y VERIFICADORES 2020.xlsx
+++ b/INSPECTORES Y VERIFICADORES 2020.xlsx
@@ -5,24 +5,26 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Verificadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\verificadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D91784-DAA6-4A68-BDA5-1B24DB7FBA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002B565-5367-4E39-8A36-677647715760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="cargos" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Datos" sheetId="3" r:id="rId3"/>
+    <sheet name="secretarias" sheetId="4" r:id="rId4"/>
+    <sheet name="direcciones" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$C$2:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$F$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="455">
   <si>
     <t>Apellidos</t>
   </si>
@@ -980,6 +982,429 @@
   </si>
   <si>
     <t>foto</t>
+  </si>
+  <si>
+    <t>AGUSTIN-PLANCARTE-MAGAÑA.png</t>
+  </si>
+  <si>
+    <t>EMMA-BRAVO-RUBIO.png</t>
+  </si>
+  <si>
+    <t>EDUARDO ALEJANDRO-OLALDE-RUIZ.png</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL-REYES-MENDEZ.png</t>
+  </si>
+  <si>
+    <t>RAMIRO-RODRIGUEZ-AVILEZ.png</t>
+  </si>
+  <si>
+    <t>HECTOR-SANCHEZ-BUCIO.png</t>
+  </si>
+  <si>
+    <t>GERARDO GIOVANNI-SANDOVAL-ARROYO.png</t>
+  </si>
+  <si>
+    <t>ABDUL RENE-AGUILERA-BARAJAS.png</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA-ARTEAGA-VAZQUEZ.png</t>
+  </si>
+  <si>
+    <t>LORENZO-BAUTISTA-SERVIN.png</t>
+  </si>
+  <si>
+    <t>JUAN PABLO-CALDERON-RUIZ.png</t>
+  </si>
+  <si>
+    <t>IGNACIO-CAMARENA-MARTINEZ.png</t>
+  </si>
+  <si>
+    <t>RICARDO-CAMPOS-PACHECO.png</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO-CARATACHEA-BUENO.png</t>
+  </si>
+  <si>
+    <t>FLORENTINO-CARDENAS-PEREZ.png</t>
+  </si>
+  <si>
+    <t>MIGUEL-CIPRES-BOTELLO.png</t>
+  </si>
+  <si>
+    <t>EDUARDO-DIAZ-MARTINEZ.png</t>
+  </si>
+  <si>
+    <t>JORGE-GALINDO-AYALA.png</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO-GONZALEZ-TINOCO.png</t>
+  </si>
+  <si>
+    <t>ALFONSO-GUILLEN-ROMAN.png</t>
+  </si>
+  <si>
+    <t>RAMIRO-HERNANDEZ-ALVAREZ.png</t>
+  </si>
+  <si>
+    <t>WILVER ENRIQUE-HERNANDEZ-OCAÑA.png</t>
+  </si>
+  <si>
+    <t>IGNACIO-LOPEZ-DE JESUS.png</t>
+  </si>
+  <si>
+    <t>J. DOLORES JORDAN-LOZA-Y FARIAS.png</t>
+  </si>
+  <si>
+    <t>GUILLERMO-MAGAÑA-RANGEL.png</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO-MAGAÑA-RESENDIZ.png</t>
+  </si>
+  <si>
+    <t>MIGUEL-MURGUIA-AGUIRRE.png</t>
+  </si>
+  <si>
+    <t>JOSE LUIS-PAÑEDA-ZAVALA.png</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO-PAZ-PAZ.png</t>
+  </si>
+  <si>
+    <t>HERIBERTO-RODRIGUEZ-FALCON.png</t>
+  </si>
+  <si>
+    <t>ERICK ALBERTO-ROSAS-VAZQUEZ.png</t>
+  </si>
+  <si>
+    <t>LUIS MARTIN-TELLEZ-BECERRA.png</t>
+  </si>
+  <si>
+    <t>SALVADOR-TELLEZ-MEDINA.png</t>
+  </si>
+  <si>
+    <t>DANIEL OSVALDO-TELLO-CERVANTES.png</t>
+  </si>
+  <si>
+    <t>JESUS-URBINA-ESQUIVEL.png</t>
+  </si>
+  <si>
+    <t>JORGE ALEJANDRO-VALENTIN-MARTINEZ.png</t>
+  </si>
+  <si>
+    <t>EDUARDO-VALLADARES-ESPIRITU.png</t>
+  </si>
+  <si>
+    <t>ERNESTO-VALLES-RICO.png</t>
+  </si>
+  <si>
+    <t>GERARDO-CHAVEZ-GARCIA.png</t>
+  </si>
+  <si>
+    <t>GONZALO ELIGIO-ORTIZ-GOMEZ.png</t>
+  </si>
+  <si>
+    <t>EDGAR DARIO-PALLARES-RAMOS.png</t>
+  </si>
+  <si>
+    <t>JAIME-RANGEL-ROMERO.png</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO-SOLIS-SERENO.png</t>
+  </si>
+  <si>
+    <t>DANIEL-LEON-LOPEZ.png</t>
+  </si>
+  <si>
+    <t>CESAR RAFAEL-LOPEZ-VIVANCO.png</t>
+  </si>
+  <si>
+    <t>ERIKKA LISBOA-MENDEZ-BUSTOS.png</t>
+  </si>
+  <si>
+    <t>HENOC JAFET-VALENCIA-ORTIZ.png</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO-VAZQUEZ-MARTINEZ.png</t>
+  </si>
+  <si>
+    <t>GONZALO ALEJANDRO-AGUERO-MORENO.png</t>
+  </si>
+  <si>
+    <t>JOSE GUADALUPE-VELAZQUEZ-ARROYO.png</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL-MARQUEZ-CORTES.png</t>
+  </si>
+  <si>
+    <t>RICH-VAZQUEZ-RENTERIA.png</t>
+  </si>
+  <si>
+    <t>REGULO FELIPE-ROBLEDO-ORTIZ.png</t>
+  </si>
+  <si>
+    <t>EDUARDO-ZAMUDIO-MANDUJANO.png</t>
+  </si>
+  <si>
+    <t>JOSE LUIS-MONTAÑEZ-GUERRERO.png</t>
+  </si>
+  <si>
+    <t>RAFAEL IGNACIO-NARES-HEREDIA.png</t>
+  </si>
+  <si>
+    <t>CESAR IVAN-ARCHUNDIA-ORTIZ.png</t>
+  </si>
+  <si>
+    <t>SALVADOR-GONZALEZ-VILLAGOMEZ.png</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO-PAZ-DAVALOS.png</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER-PAZ-ROBLES.png</t>
+  </si>
+  <si>
+    <t>Sindicatura Municipal</t>
+  </si>
+  <si>
+    <t>Secretaría del H. Ayuntamiento</t>
+  </si>
+  <si>
+    <t>Tesorería Municipal</t>
+  </si>
+  <si>
+    <t>Contraloría Municipal</t>
+  </si>
+  <si>
+    <t>Secretaría Particular</t>
+  </si>
+  <si>
+    <t>Secretaría de Administración</t>
+  </si>
+  <si>
+    <t>Secretaría de Seguridad Pública</t>
+  </si>
+  <si>
+    <t>Secretaría de Obras Públicas y Movilidad</t>
+  </si>
+  <si>
+    <t>Secretaría de Desarrollo Urbano Y Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Secretaría de Servicios Públicos Municipales</t>
+  </si>
+  <si>
+    <t>Secretaría de Desarrollo Social</t>
+  </si>
+  <si>
+    <t>Secretaría de Politica de Genero e Inclusión</t>
+  </si>
+  <si>
+    <t>Secretaría Fomento Económico</t>
+  </si>
+  <si>
+    <t>Secretaría de Turismo y Cultura</t>
+  </si>
+  <si>
+    <t>DIF</t>
+  </si>
+  <si>
+    <t>Centro Integral de Iniciación Artistica</t>
+  </si>
+  <si>
+    <t>CAPASU</t>
+  </si>
+  <si>
+    <t>IMPLAN</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DEL PARQUE NACIONAL “BARRANCA DEL CUPATITZIO”</t>
+  </si>
+  <si>
+    <t>CENTRO DE PROTECCIÓN INTEGRAL A MUJERES, NIÑOS Y NIÑAS</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>activo</t>
+  </si>
+  <si>
+    <t>Dirección de Patrimonio Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Mediación y Conciliación Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Protección Civil</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social</t>
+  </si>
+  <si>
+    <t>Dirección de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Dirección de Adquisiciones y Arrendamientos</t>
+  </si>
+  <si>
+    <t>Dirección de Servicios Generales</t>
+  </si>
+  <si>
+    <t>Dirección de Policía Preventiva</t>
+  </si>
+  <si>
+    <t>Dirección de Tránsito Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Mantenimiento y Conservación</t>
+  </si>
+  <si>
+    <t>Dirección de Panteones, Crematorio y Mercados Municipales</t>
+  </si>
+  <si>
+    <t>Dirección de Espacios Públicos</t>
+  </si>
+  <si>
+    <t>Dirección de Parques y Jardines</t>
+  </si>
+  <si>
+    <t>Dirección de Sanidad y Limpia</t>
+  </si>
+  <si>
+    <t>Dirección de Alumbrado Público</t>
+  </si>
+  <si>
+    <t>Instituto Municipal de la Mujer</t>
+  </si>
+  <si>
+    <t>Dirección de Padrón de Licencias y Giros Mercantiles</t>
+  </si>
+  <si>
+    <t>Dirección de Turismo</t>
+  </si>
+  <si>
+    <t>Dirección de Cultura</t>
+  </si>
+  <si>
+    <t>secretarias_id</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE LA UNIDAD DE TRANSPARENCIA Y ACCESO A LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>Dirección de Reglamentación e Inspección</t>
+  </si>
+  <si>
+    <t>Dirección de Archivo Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Relaciones Públicas Y Protocolo</t>
+  </si>
+  <si>
+    <t>Enlace SER</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Humano e Instituciónal</t>
+  </si>
+  <si>
+    <t>Oficina de Prevención y Proximidad Social</t>
+  </si>
+  <si>
+    <t>Dirección de Proyectos e Infraestructura Municipal</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Urbano y Vivienda</t>
+  </si>
+  <si>
+    <t>Dirección de Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo Rural y Asuntos Indígenas</t>
+  </si>
+  <si>
+    <t>Dirección de Desarrollo social</t>
+  </si>
+  <si>
+    <t>Instituto Municipal de la Juventud y Deporte</t>
+  </si>
+  <si>
+    <t>Dirección de Inclusión y Diversidad</t>
+  </si>
+  <si>
+    <t>Dirección de Innovación Gubernamental</t>
+  </si>
+  <si>
+    <t>ZHAURI SINUE-TOVAR-MENDOZA.png</t>
+  </si>
+  <si>
+    <t>HUGO GERARDO-GARCIA-RIVERA.png</t>
+  </si>
+  <si>
+    <t>JULIO CESAR-GUTIERREZ-GUTIERREZ.png</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS-AVILA-PEREZ.png</t>
+  </si>
+  <si>
+    <t>SALVADOR IVANOSKY-CORONA-MENDOZA.png</t>
+  </si>
+  <si>
+    <t>ADOLFO-DURAN-AMBRIZ.png</t>
+  </si>
+  <si>
+    <t>JORGE HUMBERTO-JUAREZ-AVILA.png</t>
+  </si>
+  <si>
+    <t>FRANCISCO RAUL-ORTIZ-RODRIGUEZ.png</t>
+  </si>
+  <si>
+    <t>ROBERTO-RODRIGUEZ-ARRIAGA.png</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO-ROSAS-ANGEL.png</t>
+  </si>
+  <si>
+    <t>JORGE OSIRIS-TOVAR-MENDOZA.png</t>
+  </si>
+  <si>
+    <t>JAVIER DANIEL-VEGA-TORRES.png</t>
+  </si>
+  <si>
+    <t>ERNESTO-BARRIGA-ACOSTA.png</t>
+  </si>
+  <si>
+    <t>HECTOR-CASTRO-CERVANTES.png</t>
+  </si>
+  <si>
+    <t>CHRISTIAN GERARDO-CHAVEZ-AVALOS.png</t>
+  </si>
+  <si>
+    <t>ROGELIO-ESTRADA-GONZALEZ.png</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO-MARES-URIBE.png</t>
+  </si>
+  <si>
+    <t>JULIO IVAN-MEDINA-RUIZ.png</t>
+  </si>
+  <si>
+    <t>SERGIO-MORA-SALGADO.png</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO-PINEDA-MARTINEZ.png</t>
+  </si>
+  <si>
+    <t>ERIK-RODRIGUEZ-CARRILLO.png</t>
+  </si>
+  <si>
+    <t>CUITLAHUAC CUAUHTEMOC-ARIAS-MONTES.png</t>
+  </si>
+  <si>
+    <t>GERARDO-BECERRA-CARRILLO.png</t>
+  </si>
+  <si>
+    <t>JOSE HUGO-GUERRERO-PACHECO.png</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,6 +1530,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5595,8 +6027,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,10 +7728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C1BB7-CB69-435D-A19F-0858B088393A}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,1876 +7742,3488 @@
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="13" max="13" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
         <v>305</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>306</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>307</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>308</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>309</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>310</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>311</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>312</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2," ",B2," ",C2)</f>
+      <c r="E2" t="str">
+        <f>CONCATENATE(B2," ",C2," ",D2)</f>
         <v>AGUSTIN PLANCARTE MAGAÑA</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="J2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>186</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE(A3," ",B3," ",C3)</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">CONCATENATE(B3," ",C3," ",D3)</f>
         <v>EMMA BRAVO RUBIO</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="J3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>188</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>EDUARDO ALEJANDRO OLALDE RUIZ</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="J4" t="s">
+        <v>316</v>
+      </c>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>190</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>MIGUEL ANGEL REYES MENDEZ</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="J5" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>RAMIRO RODRIGUEZ AVILEZ</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="J6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>194</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>HECTOR SANCHEZ BUCIO</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="J7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>196</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>GERARDO GIOVANNI SANDOVAL ARROYO</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="J8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>198</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>ABDUL RENE AGUILERA BARAJAS</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="J9" t="s">
+        <v>321</v>
+      </c>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>200</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>ANA GABRIELA ARTEAGA VAZQUEZ</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="J10" t="s">
+        <v>322</v>
+      </c>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>202</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>LORENZO BAUTISTA SERVIN</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="J11" t="s">
+        <v>323</v>
+      </c>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>188</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>JUAN PABLO CALDERON RUIZ</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="J12" t="s">
+        <v>324</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>205</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>IGNACIO CAMARENA MARTINEZ</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="J13" t="s">
+        <v>325</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>207</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>RICARDO CAMPOS PACHECO</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="J14" t="s">
+        <v>326</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>209</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>CARLOS ALBERTO CARATACHEA BUENO</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="J15" t="s">
+        <v>327</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>211</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>FLORENTINO CARDENAS PEREZ</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="J16" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>213</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>MIGUEL CIPRES BOTELLO</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="J17" t="s">
+        <v>329</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>205</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>EDUARDO DIAZ MARTINEZ</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="J18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>216</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>JORGE GALINDO AYALA</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="J19" t="s">
+        <v>331</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>218</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>CARLOS ALBERTO GONZALEZ TINOCO</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="J20" t="s">
+        <v>332</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>220</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>ALFONSO GUILLEN ROMAN</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="J21" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>222</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>RAMIRO HERNANDEZ ALVAREZ</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>5</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="J22" t="s">
+        <v>334</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>223</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>WILVER ENRIQUE HERNANDEZ OCAÑA</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="J23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>303</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>IGNACIO LOPEZ DE JESUS</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="J24" t="s">
+        <v>336</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>304</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>J. DOLORES JORDAN LOZA Y FARIAS</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="J25" t="s">
+        <v>337</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>226</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>GUILLERMO MAGAÑA RANGEL</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="J26" t="s">
+        <v>338</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>JOSE ANTONIO MAGAÑA RESENDIZ</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="J27" t="s">
+        <v>339</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>229</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>MIGUEL MURGUIA AGUIRRE</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="J28" t="s">
+        <v>340</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>231</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>JOSE LUIS PAÑEDA ZAVALA</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="J29" t="s">
+        <v>341</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>JOSE ANTONIO PAZ PAZ</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="J30" t="s">
+        <v>342</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>233</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>HERIBERTO RODRIGUEZ FALCON</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="J31" t="s">
+        <v>343</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>200</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>ERICK ALBERTO ROSAS VAZQUEZ</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="J32" t="s">
+        <v>344</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>236</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>LUIS MARTIN TELLEZ BECERRA</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="J33" t="s">
+        <v>345</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>237</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>SALVADOR TELLEZ MEDINA</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="J34" t="s">
+        <v>346</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>239</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>DANIEL OSVALDO TELLO CERVANTES</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="J35" t="s">
+        <v>347</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>241</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>JESUS URBINA ESQUIVEL</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>5</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="J36" t="s">
+        <v>348</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>205</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>JORGE ALEJANDRO VALENTIN MARTINEZ</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>244</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>EDUARDO VALLADARES ESPIRITU</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>5</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="J38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>246</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>ERNESTO VALLES RICO</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>5</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>248</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>GERARDO CHAVEZ GARCIA</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>250</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>GONZALO ELIGIO ORTIZ GOMEZ</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>5</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>252</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>EDGAR DARIO PALLARES RAMOS</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="J42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>253</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>JAIME RANGEL ROMERO</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>2</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="J43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>255</v>
       </c>
-      <c r="D44" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>MARIO ALBERTO SOLIS SERENO</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>5</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>224</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>DANIEL LEON LOPEZ</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>2</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="J45" t="s">
+        <v>357</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>257</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>CESAR RAFAEL LOPEZ VIVANCO</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>258</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>ERIKKA LISBOA MENDEZ BUSTOS</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>5</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>249</v>
       </c>
-      <c r="D48" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>HENOC JAFET VALENCIA ORTIZ</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>5</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>205</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>VICTOR HUGO VAZQUEZ MARTINEZ</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>5</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>261</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>GONZALO ALEJANDRO AGUERO MORENO</v>
       </c>
-      <c r="F50">
-        <v>14</v>
-      </c>
       <c r="G50">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H50">
+        <v>31</v>
+      </c>
+      <c r="I50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="J50" t="s">
+        <v>362</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>196</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>JOSE GUADALUPE VELAZQUEZ ARROYO</v>
       </c>
-      <c r="F51">
-        <v>14</v>
-      </c>
       <c r="G51">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H51">
+        <v>31</v>
+      </c>
+      <c r="I51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="J51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>264</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>JOSE MANUEL MARQUEZ CORTES</v>
       </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
       <c r="G52">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H52">
+        <v>19</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>265</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>RICH VAZQUEZ RENTERIA</v>
       </c>
-      <c r="F53">
-        <v>11</v>
-      </c>
       <c r="G53">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>249</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>REGULO FELIPE ROBLEDO ORTIZ</v>
       </c>
-      <c r="F54">
-        <v>11</v>
-      </c>
       <c r="G54">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H54">
+        <v>19</v>
+      </c>
+      <c r="I54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="J54" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>268</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>EDUARDO ZAMUDIO MANDUJANO</v>
       </c>
-      <c r="F55">
-        <v>11</v>
-      </c>
       <c r="G55">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="J55" t="s">
+        <v>367</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>270</v>
       </c>
-      <c r="D56" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>JOSE LUIS MONTAÑEZ GUERRERO</v>
       </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
       <c r="H56">
+        <v>19</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="J56" t="s">
+        <v>368</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>272</v>
       </c>
-      <c r="D57" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>RAFAEL IGNACIO NARES HEREDIA</v>
       </c>
+      <c r="G57">
+        <v>9</v>
+      </c>
       <c r="H57">
+        <v>19</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="J57" t="s">
+        <v>369</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>249</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>CESAR IVAN ARCHUNDIA ORTIZ</v>
       </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
       <c r="H58">
+        <v>19</v>
+      </c>
+      <c r="I58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>274</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>SALVADOR GONZALEZ VILLAGOMEZ</v>
       </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
       <c r="H59">
+        <v>19</v>
+      </c>
+      <c r="I59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="J59" t="s">
+        <v>371</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>275</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="0"/>
         <v>JOSE ANTONIO PAZ DAVALOS</v>
       </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
       <c r="H60">
+        <v>19</v>
+      </c>
+      <c r="I60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="J60" t="s">
+        <v>372</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>276</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>FRANCISCO JAVIER PAZ ROBLES</v>
       </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
       <c r="H61">
+        <v>19</v>
+      </c>
+      <c r="I61">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="J61" t="s">
+        <v>373</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>278</v>
       </c>
-      <c r="D62" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="0"/>
         <v>ZHAURI SINUE TOVAR MENDOZA</v>
       </c>
+      <c r="G62">
+        <v>9</v>
+      </c>
       <c r="H62">
+        <v>19</v>
+      </c>
+      <c r="I62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="J62" t="s">
+        <v>431</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>279</v>
       </c>
-      <c r="D63" t="str">
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>HUGO GERARDO GARCIA RIVERA</v>
       </c>
+      <c r="G63">
+        <v>9</v>
+      </c>
       <c r="H63">
+        <v>19</v>
+      </c>
+      <c r="I63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="J63" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>280</v>
       </c>
-      <c r="D64" t="str">
+      <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>JULIO CESAR GUTIERREZ GUTIERREZ</v>
       </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
       <c r="H64">
+        <v>19</v>
+      </c>
+      <c r="I64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="J64" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>211</v>
       </c>
-      <c r="D65" t="str">
+      <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>ROBERTO CARLOS AVILA PEREZ</v>
       </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
       <c r="H65">
+        <v>20</v>
+      </c>
+      <c r="I65">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="J65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>278</v>
       </c>
-      <c r="D66" t="str">
+      <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>SALVADOR IVANOSKY CORONA MENDOZA</v>
       </c>
+      <c r="G66">
+        <v>9</v>
+      </c>
       <c r="H66">
+        <v>20</v>
+      </c>
+      <c r="I66">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="J66" t="s">
+        <v>435</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>284</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D85" si="1">CONCATENATE(A67," ",B67," ",C67)</f>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E85" si="2">CONCATENATE(B67," ",C67," ",D67)</f>
         <v>ADOLFO DURAN AMBRIZ</v>
       </c>
+      <c r="G67">
+        <v>9</v>
+      </c>
       <c r="H67">
+        <v>20</v>
+      </c>
+      <c r="I67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="J67" t="s">
+        <v>436</v>
+      </c>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" ref="A68:A85" si="3">A67+1</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>281</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
         <v>JORGE HUMBERTO JUAREZ AVILA</v>
       </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
       <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="I68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="J68" t="s">
+        <v>437</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>191</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
         <v>FRANCISCO RAUL ORTIZ RODRIGUEZ</v>
       </c>
+      <c r="G69">
+        <v>9</v>
+      </c>
       <c r="H69">
+        <v>20</v>
+      </c>
+      <c r="I69">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="J69" t="s">
+        <v>438</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>286</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
         <v>ROBERTO RODRIGUEZ ARRIAGA</v>
       </c>
+      <c r="G70">
+        <v>9</v>
+      </c>
       <c r="H70">
+        <v>20</v>
+      </c>
+      <c r="I70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="J70" t="s">
+        <v>439</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>287</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
         <v>JOSE ANTONIO ROSAS ANGEL</v>
       </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
       <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="J71" t="s">
+        <v>440</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>278</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
         <v>JORGE OSIRIS TOVAR MENDOZA</v>
       </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
       <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="J72" t="s">
+        <v>441</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>289</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
         <v>JAVIER DANIEL VEGA TORRES</v>
       </c>
+      <c r="G73">
+        <v>9</v>
+      </c>
       <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="J73" t="s">
+        <v>442</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>291</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
         <v>ERNESTO BARRIGA ACOSTA</v>
       </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
       <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="J74" t="s">
+        <v>443</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>239</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
         <v>HECTOR CASTRO CERVANTES</v>
       </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
       <c r="H75">
+        <v>20</v>
+      </c>
+      <c r="I75">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="J75" t="s">
+        <v>444</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>293</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
         <v>CHRISTIAN GERARDO CHAVEZ AVALOS</v>
       </c>
+      <c r="G76">
+        <v>9</v>
+      </c>
       <c r="H76">
+        <v>20</v>
+      </c>
+      <c r="I76">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="J76" t="s">
+        <v>445</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>217</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
         <v>ROGELIO ESTRADA GONZALEZ</v>
       </c>
+      <c r="G77">
+        <v>9</v>
+      </c>
       <c r="H77">
+        <v>20</v>
+      </c>
+      <c r="I77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="J77" t="s">
+        <v>446</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>296</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
         <v>CARLOS EDUARDO MARES URIBE</v>
       </c>
+      <c r="G78">
+        <v>9</v>
+      </c>
       <c r="H78">
+        <v>20</v>
+      </c>
+      <c r="I78">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="J78" t="s">
+        <v>447</v>
+      </c>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>188</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
         <v>JULIO IVAN MEDINA RUIZ</v>
       </c>
+      <c r="G79">
+        <v>9</v>
+      </c>
       <c r="H79">
+        <v>20</v>
+      </c>
+      <c r="I79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="J79" t="s">
+        <v>448</v>
+      </c>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>298</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
         <v>SERGIO MORA SALGADO</v>
       </c>
+      <c r="G80">
+        <v>9</v>
+      </c>
       <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="J80" t="s">
+        <v>449</v>
+      </c>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>205</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
         <v>MARCO ANTONIO PINEDA MARTINEZ</v>
       </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
       <c r="H81">
+        <v>20</v>
+      </c>
+      <c r="I81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="J81" t="s">
+        <v>450</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>300</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
         <v>ERIK RODRIGUEZ CARRILLO</v>
       </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
       <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="J82" t="s">
+        <v>451</v>
+      </c>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>302</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
         <v>CUITLAHUAC CUAUHTEMOC ARIAS MONTES</v>
       </c>
-      <c r="F83">
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>22</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83" t="s">
+        <v>452</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" t="s">
+        <v>300</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>GERARDO BECERRA CARRILLO</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>22</v>
+      </c>
+      <c r="I84">
+        <v>13</v>
+      </c>
+      <c r="J84" t="s">
+        <v>453</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>JOSE HUGO GUERRERO PACHECO</v>
+      </c>
+      <c r="G85">
+        <v>10</v>
+      </c>
+      <c r="H85">
+        <v>23</v>
+      </c>
+      <c r="I85">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>454</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CCC226-BE53-49E0-B339-EFFEE2C442FF}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="66" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="G83">
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>388</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC2D49E-9413-466E-ACF6-057368F3EE18}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="H83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="B31" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
-        <v>GERARDO BECERRA CARRILLO</v>
-      </c>
-      <c r="F84">
-        <v>12</v>
-      </c>
-      <c r="G84">
-        <v>30</v>
-      </c>
-      <c r="H84">
+      <c r="B33" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C85" t="s">
-        <v>207</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
-        <v>JOSE HUGO GUERRERO PACHECO</v>
-      </c>
-      <c r="H85">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
         <v>14</v>
       </c>
     </row>

--- a/INSPECTORES Y VERIFICADORES 2020.xlsx
+++ b/INSPECTORES Y VERIFICADORES 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\verificadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002B565-5367-4E39-8A36-677647715760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E603138-CDD0-48FC-9B48-E7E410514010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/INSPECTORES Y VERIFICADORES 2020.xlsx
+++ b/INSPECTORES Y VERIFICADORES 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\verificadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E603138-CDD0-48FC-9B48-E7E410514010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FAE560-C8C9-47B0-A500-439C941DC13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="595">
   <si>
     <t>Apellidos</t>
   </si>
@@ -1405,13 +1405,433 @@
   </si>
   <si>
     <t>JOSE HUGO-GUERRERO-PACHECO.png</t>
+  </si>
+  <si>
+    <t>capacidad</t>
+  </si>
+  <si>
+    <t>Inspector Especial</t>
+  </si>
+  <si>
+    <t>Supervisor Operacion</t>
+  </si>
+  <si>
+    <t>Supervisor Operacion A</t>
+  </si>
+  <si>
+    <t>Supervisor General de Operacion</t>
+  </si>
+  <si>
+    <t>Sup de Instalaciones Domiciliarias</t>
+  </si>
+  <si>
+    <t>Auxiliar de Supervision Comercializacion</t>
+  </si>
+  <si>
+    <t>Inspector B</t>
+  </si>
+  <si>
+    <t>Supervisor General</t>
+  </si>
+  <si>
+    <t>Inspector A</t>
+  </si>
+  <si>
+    <t>Supervisor de Obra</t>
+  </si>
+  <si>
+    <t>Gestor de Cobro A</t>
+  </si>
+  <si>
+    <t>Encargado Supervisor de Cobranza</t>
+  </si>
+  <si>
+    <t>Gestor de Cobro B</t>
+  </si>
+  <si>
+    <t>Aux Supervisor de Planeacion</t>
+  </si>
+  <si>
+    <t>Auxiliar de Mantenimiento B</t>
+  </si>
+  <si>
+    <t>Intendencia</t>
+  </si>
+  <si>
+    <t>Encargado del area de Desc Residuales</t>
+  </si>
+  <si>
+    <t>Ayudante Diverso</t>
+  </si>
+  <si>
+    <t>Inspector de Operaciones</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>Huanosto</t>
+  </si>
+  <si>
+    <t>Heriberto</t>
+  </si>
+  <si>
+    <t>Barriga</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Acuña</t>
+  </si>
+  <si>
+    <t>Leobardo</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>Paredes</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Gaytan</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>Juan Gabriel</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>Sergio German</t>
+  </si>
+  <si>
+    <t>Serano</t>
+  </si>
+  <si>
+    <t>Alvaro Francisco</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Orozco</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Pacheco</t>
+  </si>
+  <si>
+    <t>Soria</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Paramo</t>
+  </si>
+  <si>
+    <t>Francisco Samuel</t>
+  </si>
+  <si>
+    <t>Saenz</t>
+  </si>
+  <si>
+    <t>Vilchis</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Lagunas</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Huerta</t>
+  </si>
+  <si>
+    <t>Oseguera</t>
+  </si>
+  <si>
+    <t>Jose Saul</t>
+  </si>
+  <si>
+    <t>Guillen</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>Jesus Manuel</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>De La Torre</t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Vidales</t>
+  </si>
+  <si>
+    <t>Landin</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>Beltran</t>
+  </si>
+  <si>
+    <t>Patricia Teresa</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Urtiz</t>
+  </si>
+  <si>
+    <t>Ma De Los Angeles</t>
+  </si>
+  <si>
+    <t>Piñon</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Arellano</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Ceron</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Acosta</t>
+  </si>
+  <si>
+    <t>Bribiesca</t>
+  </si>
+  <si>
+    <t>Rodrigo Daniel</t>
+  </si>
+  <si>
+    <t>Tovar</t>
+  </si>
+  <si>
+    <t>Villagomez</t>
+  </si>
+  <si>
+    <t>Jorge Luis</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Fatima Elizabeth</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Espinoza</t>
+  </si>
+  <si>
+    <t>Gerardo Rafael</t>
+  </si>
+  <si>
+    <t>Candelario</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Edgar Armando</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Equihua</t>
+  </si>
+  <si>
+    <t>Norma Leticia</t>
+  </si>
+  <si>
+    <t>Maria Concepcion</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Villaseñor</t>
+  </si>
+  <si>
+    <t>Alma Angelica</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Filiberto</t>
+  </si>
+  <si>
+    <t>Guizar</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Sotelo</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Luis Ivan</t>
+  </si>
+  <si>
+    <t>Anguiano</t>
+  </si>
+  <si>
+    <t>Uriel Omar</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>Jesus Angel</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Merari Betsabe</t>
+  </si>
+  <si>
+    <t>Maria De Los Angeles</t>
+  </si>
+  <si>
+    <t>Talavera</t>
+  </si>
+  <si>
+    <t>Luis Joaquin</t>
+  </si>
+  <si>
+    <t>Muciño</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1454,8 +1874,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1896,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,9 +1963,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,6 +1970,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6027,8 +6480,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,127 +8049,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71850438-3816-4D4A-A48B-CBE1E19332DC}">
-  <dimension ref="C2:F15"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
@@ -7728,21 +8346,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0C1BB7-CB69-435D-A19F-0858B088393A}">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="42.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
     <col min="13" max="13" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7777,7 +8397,7 @@
       <c r="J1" t="s">
         <v>313</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -7808,7 +8428,7 @@
       <c r="J2" t="s">
         <v>314</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7840,7 +8460,7 @@
       <c r="J3" t="s">
         <v>315</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7872,7 +8492,7 @@
       <c r="J4" t="s">
         <v>316</v>
       </c>
-      <c r="M4" s="13"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7904,7 +8524,7 @@
       <c r="J5" t="s">
         <v>317</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -7936,7 +8556,7 @@
       <c r="J6" t="s">
         <v>318</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -7968,7 +8588,7 @@
       <c r="J7" t="s">
         <v>319</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8000,7 +8620,7 @@
       <c r="J8" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8032,7 +8652,7 @@
       <c r="J9" t="s">
         <v>321</v>
       </c>
-      <c r="M9" s="13"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8064,7 +8684,7 @@
       <c r="J10" t="s">
         <v>322</v>
       </c>
-      <c r="M10" s="13"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8096,7 +8716,7 @@
       <c r="J11" t="s">
         <v>323</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -9892,7 +10512,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A85" si="3">A67+1</f>
+        <f t="shared" ref="A68:A131" si="3">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -10375,32 +10995,35 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="16" t="str">
         <f t="shared" si="2"/>
         <v>CUITLAHUAC CUAUHTEMOC ARIAS MONTES</v>
       </c>
-      <c r="G83">
+      <c r="F83" s="16"/>
+      <c r="G83" s="16">
         <v>10</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="16">
         <v>22</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="16">
         <v>8</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="14"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -10465,6 +11088,1280 @@
         <v>454</v>
       </c>
       <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>475</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D86" t="s">
+        <v>477</v>
+      </c>
+      <c r="E86" t="str">
+        <f>_xlfn.CONCAT(B86," ",C86," ",D86)</f>
+        <v>Martin Alfaro Huanosto</v>
+      </c>
+      <c r="G86">
+        <v>17</v>
+      </c>
+      <c r="I86">
+        <v>15</v>
+      </c>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D87" t="s">
+        <v>480</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ref="E87:E134" si="4">_xlfn.CONCAT(B87," ",C87," ",D87)</f>
+        <v>Heriberto Barriga Torres</v>
+      </c>
+      <c r="G87">
+        <v>17</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>481</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="D88" t="s">
+        <v>483</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="4"/>
+        <v>Sergio Campos Acuña</v>
+      </c>
+      <c r="G88">
+        <v>17</v>
+      </c>
+      <c r="I88">
+        <v>15</v>
+      </c>
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>484</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D89" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="4"/>
+        <v>Leobardo Fernandez Paredes</v>
+      </c>
+      <c r="G89">
+        <v>17</v>
+      </c>
+      <c r="I89">
+        <v>17</v>
+      </c>
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>487</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D90" t="s">
+        <v>489</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="4"/>
+        <v>Gerardo Gaytan Pineda</v>
+      </c>
+      <c r="G90">
+        <v>17</v>
+      </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>490</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="D91" t="s">
+        <v>492</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="4"/>
+        <v>Juan Gabriel Gonzalez Chavez</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+      <c r="I91">
+        <v>18</v>
+      </c>
+      <c r="J91" s="15"/>
+    </row>
+    <row r="92" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>493</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D92" t="s">
+        <v>494</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="4"/>
+        <v>Sergio German Gonzalez Serano</v>
+      </c>
+      <c r="G92">
+        <v>17</v>
+      </c>
+      <c r="I92">
+        <v>15</v>
+      </c>
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>495</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D93" t="s">
+        <v>497</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="4"/>
+        <v>Alvaro Francisco Lopez Orozco</v>
+      </c>
+      <c r="G93">
+        <v>17</v>
+      </c>
+      <c r="I93">
+        <v>19</v>
+      </c>
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>498</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="D94" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="4"/>
+        <v>Miguel Pacheco Soria</v>
+      </c>
+      <c r="G94">
+        <v>17</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="J94" s="15"/>
+    </row>
+    <row r="95" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>501</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D95" t="s">
+        <v>485</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="4"/>
+        <v>Roberto Paramo Fernandez</v>
+      </c>
+      <c r="G95">
+        <v>17</v>
+      </c>
+      <c r="I95">
+        <v>21</v>
+      </c>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>503</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" t="s">
+        <v>505</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="4"/>
+        <v>Francisco Samuel Saenz Vilchis</v>
+      </c>
+      <c r="G96">
+        <v>17</v>
+      </c>
+      <c r="I96">
+        <v>22</v>
+      </c>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>506</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="D97" t="s">
+        <v>508</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="4"/>
+        <v>Nicolas Vargas Garcia</v>
+      </c>
+      <c r="G97">
+        <v>17</v>
+      </c>
+      <c r="I97">
+        <v>22</v>
+      </c>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>509</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D98" t="s">
+        <v>494</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="4"/>
+        <v>Salvador Gonzalez Serano</v>
+      </c>
+      <c r="G98">
+        <v>17</v>
+      </c>
+      <c r="I98">
+        <v>23</v>
+      </c>
+      <c r="J98" s="15"/>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>510</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D99" t="s">
+        <v>512</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="4"/>
+        <v>Fernando Rico Lagunas</v>
+      </c>
+      <c r="G99">
+        <v>17</v>
+      </c>
+      <c r="I99">
+        <v>15</v>
+      </c>
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>513</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="D100" t="s">
+        <v>515</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="4"/>
+        <v>Abraham Huerta Oseguera</v>
+      </c>
+      <c r="G100">
+        <v>17</v>
+      </c>
+      <c r="I100">
+        <v>15</v>
+      </c>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" t="s">
+        <v>479</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="4"/>
+        <v>Jose Saul Guillen Barriga</v>
+      </c>
+      <c r="G101">
+        <v>17</v>
+      </c>
+      <c r="I101">
+        <v>23</v>
+      </c>
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D102" t="s">
+        <v>520</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="4"/>
+        <v>Alberto Diaz Avila</v>
+      </c>
+      <c r="G102">
+        <v>17</v>
+      </c>
+      <c r="I102">
+        <v>24</v>
+      </c>
+      <c r="J102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>521</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D103" t="s">
+        <v>523</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="4"/>
+        <v>Jesus Manuel Zaragoza .</v>
+      </c>
+      <c r="G103">
+        <v>17</v>
+      </c>
+      <c r="I103">
+        <v>25</v>
+      </c>
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>524</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D104" t="s">
+        <v>526</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="4"/>
+        <v>Manuel De La Torre Mendez</v>
+      </c>
+      <c r="G104">
+        <v>17</v>
+      </c>
+      <c r="I104">
+        <v>23</v>
+      </c>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>527</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D105" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="4"/>
+        <v>Adriana Vidales Landin</v>
+      </c>
+      <c r="G105">
+        <v>17</v>
+      </c>
+      <c r="I105">
+        <v>23</v>
+      </c>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>530</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D106" t="s">
+        <v>531</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="4"/>
+        <v>Gregorio Vilchis Beltran</v>
+      </c>
+      <c r="G106">
+        <v>17</v>
+      </c>
+      <c r="I106">
+        <v>15</v>
+      </c>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>532</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D107" t="s">
+        <v>534</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="4"/>
+        <v>Patricia Teresa Martinez Urtiz</v>
+      </c>
+      <c r="G107">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <v>21</v>
+      </c>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>535</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D108" t="s">
+        <v>537</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="4"/>
+        <v>Ma De Los Angeles Piñon Ramos</v>
+      </c>
+      <c r="G108">
+        <v>17</v>
+      </c>
+      <c r="I108">
+        <v>23</v>
+      </c>
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>538</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D109" t="s">
+        <v>540</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="4"/>
+        <v>Alfredo Rocha Alvarado</v>
+      </c>
+      <c r="G109">
+        <v>17</v>
+      </c>
+      <c r="I109">
+        <v>26</v>
+      </c>
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>541</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="D110" t="s">
+        <v>542</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="4"/>
+        <v>Eduardo Martinez Correa</v>
+      </c>
+      <c r="G110">
+        <v>17</v>
+      </c>
+      <c r="I110">
+        <v>15</v>
+      </c>
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>543</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D111" t="s">
+        <v>545</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="4"/>
+        <v>Luis Reyes Arellano</v>
+      </c>
+      <c r="G111">
+        <v>17</v>
+      </c>
+      <c r="I111">
+        <v>25</v>
+      </c>
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>546</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D112" t="s">
+        <v>496</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="4"/>
+        <v>Juan Carlos Tapia Lopez</v>
+      </c>
+      <c r="G112">
+        <v>17</v>
+      </c>
+      <c r="I112">
+        <v>21</v>
+      </c>
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>548</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D113" t="s">
+        <v>550</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="4"/>
+        <v>Dante Ceron Perez</v>
+      </c>
+      <c r="G113">
+        <v>17</v>
+      </c>
+      <c r="I113">
+        <v>27</v>
+      </c>
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>551</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D114" t="s">
+        <v>553</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="4"/>
+        <v>Jose Luis Acosta Bribiesca</v>
+      </c>
+      <c r="G114">
+        <v>17</v>
+      </c>
+      <c r="I114">
+        <v>23</v>
+      </c>
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" t="s">
+        <v>556</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="4"/>
+        <v>Rodrigo Daniel Tovar Villagomez</v>
+      </c>
+      <c r="G115">
+        <v>17</v>
+      </c>
+      <c r="I115">
+        <v>27</v>
+      </c>
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>557</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D116" t="s">
+        <v>558</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="4"/>
+        <v>Jorge Luis Lopez Lucas</v>
+      </c>
+      <c r="G116">
+        <v>17</v>
+      </c>
+      <c r="I116">
+        <v>17</v>
+      </c>
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>559</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D117" t="s">
+        <v>560</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="4"/>
+        <v>Javier Solis Solis</v>
+      </c>
+      <c r="G117">
+        <v>17</v>
+      </c>
+      <c r="I117">
+        <v>21</v>
+      </c>
+      <c r="J117" s="15"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="D118" t="s">
+        <v>563</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="4"/>
+        <v>Mario Ortiz Rivera</v>
+      </c>
+      <c r="G118">
+        <v>17</v>
+      </c>
+      <c r="I118">
+        <v>15</v>
+      </c>
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>564</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D119" t="s">
+        <v>566</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="4"/>
+        <v>Fatima Elizabeth Gutierrez Espinoza</v>
+      </c>
+      <c r="G119">
+        <v>17</v>
+      </c>
+      <c r="I119">
+        <v>21</v>
+      </c>
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>567</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D120" t="s">
+        <v>569</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="4"/>
+        <v>Gerardo Rafael Candelario Damian</v>
+      </c>
+      <c r="G120">
+        <v>17</v>
+      </c>
+      <c r="I120">
+        <v>28</v>
+      </c>
+      <c r="J120" s="15"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>570</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="D121" t="s">
+        <v>572</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="4"/>
+        <v>Edgar Armando Herrera Equihua</v>
+      </c>
+      <c r="G121">
+        <v>17</v>
+      </c>
+      <c r="I121">
+        <v>27</v>
+      </c>
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>573</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D122" t="s">
+        <v>547</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="4"/>
+        <v>Norma Leticia Lagunas Tapia</v>
+      </c>
+      <c r="G122">
+        <v>17</v>
+      </c>
+      <c r="I122">
+        <v>21</v>
+      </c>
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>574</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="D123" t="s">
+        <v>575</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="4"/>
+        <v>Maria Concepcion Espinoza Sanchez</v>
+      </c>
+      <c r="G123">
+        <v>17</v>
+      </c>
+      <c r="I123">
+        <v>21</v>
+      </c>
+      <c r="J123" s="15"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>509</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D124" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="4"/>
+        <v>Salvador Garcia Villaseñor</v>
+      </c>
+      <c r="G124">
+        <v>17</v>
+      </c>
+      <c r="I124">
+        <v>29</v>
+      </c>
+      <c r="J124" s="15"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>577</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" t="s">
+        <v>578</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="4"/>
+        <v>Alma Angelica Gonzalez Barrera</v>
+      </c>
+      <c r="G125">
+        <v>17</v>
+      </c>
+      <c r="I125">
+        <v>30</v>
+      </c>
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>579</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D126" t="s">
+        <v>522</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="4"/>
+        <v>Filiberto Avila Zaragoza</v>
+      </c>
+      <c r="G126">
+        <v>17</v>
+      </c>
+      <c r="I126">
+        <v>27</v>
+      </c>
+      <c r="J126" s="15"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>518</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D127" t="s">
+        <v>580</v>
+      </c>
+      <c r="E127" t="str">
+        <f t="shared" si="4"/>
+        <v>Alberto Reyes Guizar</v>
+      </c>
+      <c r="G127">
+        <v>17</v>
+      </c>
+      <c r="I127">
+        <v>21</v>
+      </c>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>581</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="D128" t="s">
+        <v>583</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="4"/>
+        <v>Daniela Sotelo Hernandez</v>
+      </c>
+      <c r="G128">
+        <v>17</v>
+      </c>
+      <c r="I128">
+        <v>21</v>
+      </c>
+      <c r="J128" s="15"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>584</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="D129" t="s">
+        <v>533</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="4"/>
+        <v>Luis Ivan Anguiano Martinez</v>
+      </c>
+      <c r="G129">
+        <v>17</v>
+      </c>
+      <c r="I129">
+        <v>21</v>
+      </c>
+      <c r="J129" s="15"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>586</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="D130" t="s">
+        <v>587</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" si="4"/>
+        <v>Uriel Omar Miguel Esparza</v>
+      </c>
+      <c r="G130">
+        <v>17</v>
+      </c>
+      <c r="I130">
+        <v>31</v>
+      </c>
+      <c r="J130" s="15"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>588</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="D131" t="s">
+        <v>589</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="4"/>
+        <v>Jesus Angel Alvarado Sánchez</v>
+      </c>
+      <c r="G131">
+        <v>17</v>
+      </c>
+      <c r="I131">
+        <v>32</v>
+      </c>
+      <c r="J131" s="15"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132:A134" si="5">A131+1</f>
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>590</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D132" t="s">
+        <v>576</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" si="4"/>
+        <v>Merari Betsabe Garcia Villaseñor</v>
+      </c>
+      <c r="G132">
+        <v>17</v>
+      </c>
+      <c r="I132">
+        <v>32</v>
+      </c>
+      <c r="J132" s="15"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>591</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="D133" t="s">
+        <v>575</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="4"/>
+        <v>Maria De Los Angeles Talavera Sanchez</v>
+      </c>
+      <c r="G133">
+        <v>17</v>
+      </c>
+      <c r="I133">
+        <v>32</v>
+      </c>
+      <c r="J133" s="15"/>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>593</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D134" t="s">
+        <v>594</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="4"/>
+        <v>Luis Joaquin Gutierrez Muciño</v>
+      </c>
+      <c r="G134">
+        <v>17</v>
+      </c>
+      <c r="I134">
+        <v>33</v>
+      </c>
+      <c r="J134" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10755,13 +12652,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10769,13 +12666,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10783,13 +12680,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -10797,13 +12694,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
     </row>
@@ -10811,13 +12708,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -10825,13 +12722,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
     </row>
@@ -10839,13 +12736,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>5</v>
       </c>
     </row>
@@ -10853,13 +12750,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5</v>
       </c>
     </row>
@@ -10867,13 +12764,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>5</v>
       </c>
     </row>
@@ -10881,13 +12778,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>6</v>
       </c>
     </row>
@@ -10895,13 +12792,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>6</v>
       </c>
     </row>
@@ -10909,13 +12806,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>6</v>
       </c>
     </row>
@@ -10923,13 +12820,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>6</v>
       </c>
     </row>
@@ -10937,13 +12834,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>7</v>
       </c>
     </row>
@@ -10951,13 +12848,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>7</v>
       </c>
     </row>
@@ -10965,13 +12862,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>7</v>
       </c>
     </row>
@@ -10979,13 +12876,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>1</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>8</v>
       </c>
     </row>
@@ -10993,13 +12890,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>8</v>
       </c>
     </row>
@@ -11007,13 +12904,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>9</v>
       </c>
     </row>
@@ -11021,13 +12918,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>9</v>
       </c>
     </row>
@@ -11035,13 +12932,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>9</v>
       </c>
     </row>
@@ -11049,13 +12946,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>10</v>
       </c>
     </row>
@@ -11063,13 +12960,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>1</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>10</v>
       </c>
     </row>
@@ -11077,13 +12974,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>10</v>
       </c>
     </row>
@@ -11091,13 +12988,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>1</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>10</v>
       </c>
     </row>
@@ -11105,13 +13002,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>11</v>
       </c>
     </row>
@@ -11119,13 +13016,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>11</v>
       </c>
     </row>
@@ -11133,13 +13030,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>11</v>
       </c>
     </row>
@@ -11147,13 +13044,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>12</v>
       </c>
     </row>
@@ -11161,13 +13058,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>12</v>
       </c>
     </row>
@@ -11175,13 +13072,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="10">
         <v>13</v>
       </c>
     </row>
@@ -11189,13 +13086,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="10">
         <v>13</v>
       </c>
     </row>
@@ -11203,13 +13100,13 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>1</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>14</v>
       </c>
     </row>
@@ -11217,13 +13114,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>1</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <v>14</v>
       </c>
     </row>
